--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_9_10.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_9_10.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-35614.90370141533</v>
+        <v>-37185.30650434722</v>
       </c>
     </row>
     <row r="7">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100.0000000001</v>
+        <v>133100</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>48119.72719740959</v>
+        <v>48378.33248915087</v>
       </c>
       <c r="C4" t="n">
-        <v>48119.72719740959</v>
+        <v>48378.33248915087</v>
       </c>
       <c r="D4" t="n">
-        <v>48119.72719740959</v>
+        <v>48378.33248915087</v>
       </c>
       <c r="E4" t="n">
-        <v>28515.99717915458</v>
+        <v>28669.24800161989</v>
       </c>
       <c r="F4" t="n">
-        <v>28515.99717915458</v>
+        <v>28669.24800161989</v>
       </c>
       <c r="G4" t="n">
-        <v>28515.99717915458</v>
+        <v>28669.24800161989</v>
       </c>
       <c r="H4" t="n">
-        <v>28515.99717915458</v>
+        <v>28669.24800161989</v>
       </c>
       <c r="I4" t="n">
-        <v>28515.99717915458</v>
+        <v>28669.24800161989</v>
       </c>
       <c r="J4" t="n">
-        <v>28515.99717915458</v>
+        <v>28669.24800161989</v>
       </c>
       <c r="K4" t="n">
-        <v>28515.99717915458</v>
+        <v>28669.24800161989</v>
       </c>
       <c r="L4" t="n">
-        <v>28515.99717915458</v>
+        <v>28669.24800161989</v>
       </c>
       <c r="M4" t="n">
-        <v>28515.99717915458</v>
+        <v>28669.24800161989</v>
       </c>
       <c r="N4" t="n">
-        <v>28515.99717915458</v>
+        <v>28669.24800161989</v>
       </c>
       <c r="O4" t="n">
-        <v>28515.99717915458</v>
+        <v>28669.24800161989</v>
       </c>
       <c r="P4" t="n">
-        <v>28515.99717915458</v>
+        <v>28669.24800161989</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-27993.62443168638</v>
+        <v>-28252.22972342766</v>
       </c>
       <c r="C6" t="n">
-        <v>-27993.62443168638</v>
+        <v>-28252.22972342766</v>
       </c>
       <c r="D6" t="n">
-        <v>-27993.62443168638</v>
+        <v>-28252.22972342766</v>
       </c>
       <c r="E6" t="n">
-        <v>-108067.3352092312</v>
+        <v>-108220.5860316964</v>
       </c>
       <c r="F6" t="n">
-        <v>25032.6647907689</v>
+        <v>24879.4139683036</v>
       </c>
       <c r="G6" t="n">
-        <v>25032.6647907689</v>
+        <v>24879.4139683036</v>
       </c>
       <c r="H6" t="n">
-        <v>25032.6647907689</v>
+        <v>24879.4139683036</v>
       </c>
       <c r="I6" t="n">
-        <v>25032.6647907689</v>
+        <v>24879.4139683036</v>
       </c>
       <c r="J6" t="n">
-        <v>25032.6647907689</v>
+        <v>24879.4139683036</v>
       </c>
       <c r="K6" t="n">
-        <v>25032.6647907689</v>
+        <v>24879.4139683036</v>
       </c>
       <c r="L6" t="n">
-        <v>25032.6647907689</v>
+        <v>24879.4139683036</v>
       </c>
       <c r="M6" t="n">
-        <v>25032.6647907689</v>
+        <v>24879.4139683036</v>
       </c>
       <c r="N6" t="n">
-        <v>25032.6647907689</v>
+        <v>24879.4139683036</v>
       </c>
       <c r="O6" t="n">
-        <v>25032.6647907689</v>
+        <v>24879.4139683036</v>
       </c>
       <c r="P6" t="n">
-        <v>25032.6647907689</v>
+        <v>24879.4139683036</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_9_10.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_9_10.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37185.30650434722</v>
+        <v>-23458.94836692908</v>
       </c>
     </row>
     <row r="7">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26418,43 +26420,43 @@
         <v>48378.33248915087</v>
       </c>
       <c r="C4" t="n">
-        <v>48378.33248915087</v>
+        <v>48378.33248915088</v>
       </c>
       <c r="D4" t="n">
         <v>48378.33248915087</v>
       </c>
       <c r="E4" t="n">
-        <v>28669.24800161989</v>
+        <v>28669.24800161988</v>
       </c>
       <c r="F4" t="n">
         <v>28669.24800161989</v>
       </c>
       <c r="G4" t="n">
-        <v>28669.24800161989</v>
+        <v>28669.24800161988</v>
       </c>
       <c r="H4" t="n">
         <v>28669.24800161989</v>
       </c>
       <c r="I4" t="n">
-        <v>28669.24800161989</v>
+        <v>28669.24800161988</v>
       </c>
       <c r="J4" t="n">
         <v>28669.24800161989</v>
       </c>
       <c r="K4" t="n">
-        <v>28669.24800161989</v>
+        <v>28669.24800161988</v>
       </c>
       <c r="L4" t="n">
         <v>28669.24800161989</v>
       </c>
       <c r="M4" t="n">
-        <v>28669.24800161989</v>
+        <v>28669.24800161988</v>
       </c>
       <c r="N4" t="n">
         <v>28669.24800161989</v>
       </c>
       <c r="O4" t="n">
-        <v>28669.24800161989</v>
+        <v>28669.24800161988</v>
       </c>
       <c r="P4" t="n">
         <v>28669.24800161989</v>
@@ -26522,13 +26524,13 @@
         <v>-28252.22972342766</v>
       </c>
       <c r="C6" t="n">
-        <v>-28252.22972342766</v>
+        <v>-28252.22972342767</v>
       </c>
       <c r="D6" t="n">
         <v>-28252.22972342766</v>
       </c>
       <c r="E6" t="n">
-        <v>-108220.5860316964</v>
+        <v>-108220.5860316965</v>
       </c>
       <c r="F6" t="n">
         <v>24879.4139683036</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_9_10.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_9_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-23458.94836692908</v>
+        <v>-148568.8471644057</v>
       </c>
     </row>
     <row r="7">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53753.70276572321</v>
+        <v>53753.7027657232</v>
       </c>
       <c r="C2" t="n">
         <v>53753.70276572321</v>
       </c>
       <c r="D2" t="n">
-        <v>53753.70276572321</v>
+        <v>53753.7027657232</v>
       </c>
       <c r="E2" t="n">
-        <v>57160.27407493181</v>
+        <v>57160.2740749318</v>
       </c>
       <c r="F2" t="n">
-        <v>57160.27407493181</v>
+        <v>57160.27407493182</v>
       </c>
       <c r="G2" t="n">
-        <v>57160.27407493181</v>
+        <v>57160.27407493182</v>
       </c>
       <c r="H2" t="n">
-        <v>57160.27407493181</v>
+        <v>57160.27407493182</v>
       </c>
       <c r="I2" t="n">
-        <v>57160.27407493181</v>
+        <v>57160.27407493182</v>
       </c>
       <c r="J2" t="n">
-        <v>57160.27407493181</v>
+        <v>57160.27407493182</v>
       </c>
       <c r="K2" t="n">
-        <v>57160.27407493181</v>
+        <v>57160.27407493182</v>
       </c>
       <c r="L2" t="n">
-        <v>57160.27407493181</v>
+        <v>57160.27407493182</v>
       </c>
       <c r="M2" t="n">
-        <v>57160.27407493181</v>
+        <v>57160.27407493182</v>
       </c>
       <c r="N2" t="n">
-        <v>57160.27407493181</v>
+        <v>57160.27407493182</v>
       </c>
       <c r="O2" t="n">
-        <v>57160.27407493181</v>
+        <v>57160.27407493182</v>
       </c>
       <c r="P2" t="n">
-        <v>57160.27407493181</v>
+        <v>57160.27407493182</v>
       </c>
     </row>
     <row r="3">
@@ -26429,37 +26429,37 @@
         <v>28669.24800161988</v>
       </c>
       <c r="F4" t="n">
+        <v>28669.24800161988</v>
+      </c>
+      <c r="G4" t="n">
         <v>28669.24800161989</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>28669.24800161988</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>28669.24800161989</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>28669.24800161988</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>28669.24800161989</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>28669.24800161988</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>28669.24800161989</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>28669.24800161988</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>28669.24800161989</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>28669.24800161988</v>
-      </c>
-      <c r="P4" t="n">
-        <v>28669.24800161989</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-28252.22972342766</v>
+        <v>-43402.90369346243</v>
       </c>
       <c r="C6" t="n">
-        <v>-28252.22972342767</v>
+        <v>-43402.90369346243</v>
       </c>
       <c r="D6" t="n">
-        <v>-28252.22972342766</v>
+        <v>-43402.90369346243</v>
       </c>
       <c r="E6" t="n">
-        <v>-108220.5860316965</v>
+        <v>-123030.6028708104</v>
       </c>
       <c r="F6" t="n">
-        <v>24879.4139683036</v>
+        <v>10069.39712918971</v>
       </c>
       <c r="G6" t="n">
-        <v>24879.4139683036</v>
+        <v>10069.3971291897</v>
       </c>
       <c r="H6" t="n">
-        <v>24879.4139683036</v>
+        <v>10069.39712918971</v>
       </c>
       <c r="I6" t="n">
-        <v>24879.4139683036</v>
+        <v>10069.3971291897</v>
       </c>
       <c r="J6" t="n">
-        <v>24879.4139683036</v>
+        <v>10069.39712918971</v>
       </c>
       <c r="K6" t="n">
-        <v>24879.4139683036</v>
+        <v>10069.3971291897</v>
       </c>
       <c r="L6" t="n">
-        <v>24879.4139683036</v>
+        <v>10069.39712918971</v>
       </c>
       <c r="M6" t="n">
-        <v>24879.4139683036</v>
+        <v>10069.3971291897</v>
       </c>
       <c r="N6" t="n">
-        <v>24879.4139683036</v>
+        <v>10069.39712918971</v>
       </c>
       <c r="O6" t="n">
-        <v>24879.4139683036</v>
+        <v>10069.3971291897</v>
       </c>
       <c r="P6" t="n">
-        <v>24879.4139683036</v>
+        <v>10069.39712918971</v>
       </c>
     </row>
   </sheetData>
